--- a/爬虫项目/豆瓣top.xlsx
+++ b/爬虫项目/豆瓣top.xlsx
@@ -8,6 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copy version" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copy version1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="copy version2" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -61,6 +63,74 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -8435,4 +8505,7576 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>评语</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>希望让人自由。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>控方证人</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>比利·怀德满分作品。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>风华绝代。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>辛德勒的名单</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>拯救一个人，就是拯救整个世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>人生果实</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>土壤没有落叶不会肥沃，没有了你就不算人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>最美的谎言。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>一部美国近现代史。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>忠犬八公的故事</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永远都不能忘记你所爱的人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>怪蜀黍和小萝莉不得不说的故事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>泰坦尼克号</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>失去的才是永恒的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>十二怒汉</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1957年的理想主义。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>最好的宫崎骏，最好的久石让。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>星际穿越</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>爱是一种力量，让我们超越时空感知它的存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>熔炉</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>摩登时代</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大时代中的人生，小人物的悲喜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>乱世佳人</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tomorrow is another day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>教父</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>千万不要记恨你的对手，这样会让你失去理智。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>机器人总动员</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>小瓦力，大人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>海豚湾</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海豚的微笑，是世界上最高明的伪装。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>海上钢琴师</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>每个人都要走一条自己坚定了的路，就算是粉身碎骨。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>放牛班的春天</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天籁一般的童声，是最接近上帝的存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>盗梦空间</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺兰给了我们一场无法盗取的梦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>大闹天宫</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>经典之作，历久弥新。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>楚门的世界</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>城市之光</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永远的小人物，伟大的卓别林。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>忠犬八公物语</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>养狗三日，便会对你终其一生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>指环王3：王者无敌</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>史诗的终章。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>小鞋子</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>奔跑的孩子是天使。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>无间道</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>香港电影史上永不过时的杰作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>天堂电影院</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>天书奇谭</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>传奇的年代，醉人的童话。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>素媛</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>三傻大闹宝莱坞</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英俊版憨豆，高情商版谢耳朵。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>七武士</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>时代悲歌。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>末代皇帝</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>美国往事</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>往事如烟，无处祭奠。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>龙猫</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>人人心中都有个龙猫，童年就永远不会消失。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>教父2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>优雅的孤独。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>张艺谋最好的电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>海蒂和爷爷</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>鬼子来了</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>对敌人的仁慈，就是对自己残忍。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>钢琴家</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>音乐能化解仇恨。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>疯狂动物城</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>东京物语</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>大话西游之大圣娶亲</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>一生所爱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>触不可及</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满满温情的高雅喜剧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>辩护人</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>电影的现实意义大过电影本身。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>无尽的黑暗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>指环王2：双塔奇兵</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>承前启后的史诗篇章。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>饮食男女</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>寻梦环游记</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>无人知晓</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>我的平常生活就是他人的幸福。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>闻香识女人</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>史上最美的探戈。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>完美的世界</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>坏人的好总是比好人的好来得更感人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>对天空的追逐，永不停止。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>死亡诗社</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>狩猎</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>人言可畏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>少年派的奇幻漂流</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>瑰丽壮观、无人能及的冒险之旅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>窃听风暴</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>别样人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>怦然心动</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>真正的幸福是来自内心深处。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>哪吒闹海</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>想你时你在闹海。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>两杆大烟枪</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>何以为家</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>凝视卑弱生命，用电影改变命运。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大海啊，不全是水。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>哈尔的移动城堡</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>带着心爱的人在天空飞翔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>飞越疯人院</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>自由万岁。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>当幸福来敲门</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平民励志片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>穿条纹睡衣的男孩</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>指环王1：魔戒再现</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>传说的开始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>拯救大兵瑞恩</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>美利坚精神输出大片No1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>雨中曲</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>骨灰级歌舞片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>音乐之声</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>用音乐化解仇恨，让歌声串起美好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>一一</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>我们都曾经是一一。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>小森林 夏秋篇</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>小森林 冬春篇</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>我不是药神</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>对我们国家而言，这样的电影多一部是一部。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>我爱你</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>来也匆匆去也匆匆，就这样风雨兼程。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>摔跤吧！爸爸</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>狮子王</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>动物版《哈姆雷特》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>美丽心灵</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>9</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>爱是一切逻辑和原由。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>猫鼠游戏</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>骗子大师和执著警探的你追我跑故事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>罗马假日</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>爱情哪怕只有一天。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>惊魂记</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>故事的反转与反转，分裂电影的始祖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>红辣椒</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>9</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>梦的勾结。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>黑客帝国</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>视觉革命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>哈利·波特与魔法石</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>童话世界的开端。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>飞屋环游记</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>9</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>最后那些最无聊的事情，才是最值得怀念的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>大话西游之月光宝盒</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>9</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>旷古烁今。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>搏击俱乐部</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>追随</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>致命魔术</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>孪生蝙蝠侠大战克隆金刚狼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>幽灵公主</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>人与自然的战争史诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>勇敢的心</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>史诗大片的典范。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>萤火之森</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>触不到的恋人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>心灵捕手</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>人生中应该拥有这样的一段豁然开朗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>喜宴</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中国家庭的喜怒哀乐忍。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>西西里的美丽传说</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>美丽无罪。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>我是山姆</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>爱并不需要智商 。</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>未麻的部屋</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>四个春天</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>上帝之城</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>被上帝抛弃了的上帝之城。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>请以你的名字呼唤我</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>情书</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>暗恋的极致。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>你看起来好像很好吃</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>感情不分食草或者食肉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>玛丽和马克思</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>你是我最好的朋友，你是我唯一的朋友 。</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>绿皮书</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>去除成见，需要勇气。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>卢旺达饭店</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>教父3</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>任何信念的力量，都无法改变命运。</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>虎口脱险</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>永远看不腻的喜剧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>风之谷</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>动画片的圣经。</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>第六感</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>深入内心的恐怖，出人意料的结局。</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>地球上的星星</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天使保护事件始末。</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>春光乍泄</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>爱情纠缠，男女一致。</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>超脱</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>侧耳倾听</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>少女情怀总是诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>本杰明·巴顿奇事</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>在时间之河里感受溺水之苦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>被嫌弃的松子的一生</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>以戏谑来戏谑戏谑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>V字仇杀队</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>一张面具背后的理想与革命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7号房的礼物</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>《我是山姆》的《美丽人生》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>纵横四海</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>致命ID</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>最不可能的那个人永远是最可能的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>一个叫欧维的男人决定去死</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>惠及一生的美丽。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>阳光姐妹淘</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>再多各自牛逼的时光，也比不上一起傻逼的岁月。</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>阳光灿烂的日子</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>一场华丽的意淫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>幸福终点站</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>有时候幸福需要等一等。</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>新世界</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>要做就做得狠一点，这样才能活下去。</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>玩具总动员3</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>跨度十五年的欢乐与泪水。</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>甜蜜蜜</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>相逢只要一瞬间，等待却像是一辈子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>杀人回忆</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>关于连环杀人悬案的集体回忆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>入殓师</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>让子弹飞</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>燃情岁月</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>传奇，不是每个人都可以拥有。</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>千钧一发</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>还原真实而残酷的战争。</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>七宗罪</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>警察抓小偷，老鼠玩死猫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>绿里奇迹</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>天使暂时离开。</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>罗生门</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>人生的N种可能性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>恐怖直播</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>恐怖分子的“秋菊打官司”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>可可西里</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>坚硬的信仰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>看不见的客人</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>你以为你以为的就是你以为的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>聚焦</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新闻人的理性求真。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>菊次郎的夏天</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>禁闭岛</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>昔日翩翩少年，今日大腹便便。</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>借东西的小人阿莉埃蒂</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>魂断蓝桥</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中国式内在的美国电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>荒蛮故事</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>始于荒诞，止于更荒诞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>蝴蝶效应</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>人的命运被自己瞬间的抉择改变。</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>海街日记</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>是枝裕和的家庭习作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>哈利·波特与死亡圣器(下)</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>10年的完美句点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>牯岭街少年杀人事件</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>弱者送给弱者的一刀。</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>房间</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>断背山</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>每个人心中都有一座断背山。</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>谍影重重3</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>像吃了苏打饼一样干脆的电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>低俗小说</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>故事的高级讲法。</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>大鱼</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>达拉斯买家俱乐部</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Jared Leto的腿比女人还美！</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>沉默的羔羊</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>安东尼·霍普金斯的顶级表演。</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>步履不停</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>布达佩斯大饭店</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>小清新的故事里注入了大历史的情怀。</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士崛起</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>诺兰就是保证。</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>爱在午夜降临前</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>爱在日落黄昏时</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>爱在黎明破晓前</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>缘分是个连绵词，最美不过一瞬。</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2001太空漫游</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>重庆森林</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>寂寞没有期限。</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>终结者2：审判日</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>少见的超越首部的续集，动作片中的经典。</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>雨人</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>萤火虫之墓</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>幸福是生生不息，却难以触及的远。</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>英雄本色</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>英雄泪短，兄弟情长。</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>一次别离</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>你要相信，这世上真的有爱存在，不管在什么年纪</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>驯龙高手</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>和谐的生活离不开摸头与被摸头。</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>血钻</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>每个美丽事物背后都是滴血的现实。</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>血战钢锯岭</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>心迷宫</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>小偷家族</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>我们组成了家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>消失的爱人</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>年度最佳date movie。</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>喜剧之王</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>我是一个演员。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>无敌破坏王</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>迪士尼和皮克斯拿错剧本的产物。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>头脑特工队</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>头号玩家</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>写给影迷，动漫迷和游戏迷的一封情书。</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>天使爱美丽</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>法式小清新。</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>岁月神偷</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>岁月流逝，来日可追。</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>时空恋旅人</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>射雕英雄传之东成西就</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>百看不厌。</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>三块广告牌</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>怼天怼地，你走后，她与世界为敌。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>倩女幽魂</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>两张绝世的脸。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>模仿游戏</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>浪潮</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>世界离独裁只有五天。</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>剪刀手爱德华</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>浪漫忧郁的成人童话。</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>加勒比海盗</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>约翰尼·德普的独角戏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>黑鹰坠落</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>我完全康复了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>黑客帝国3：矩阵革命</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>哈利·波特与阿兹卡班的囚徒</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>不一样的导演，不一样的哈利·波特。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>怪兽电力公司</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>不要给它起名字，起了名字就有感情了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>告白</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>没有一人完全善，也没有一人完全恶。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>疯狂原始人</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>老少皆宜，这就是好莱坞动画的魅力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>二十二</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>有一些东西不应该被遗忘。</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>谍影重重2</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>谁说王家卫镜头很晃？</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>电锯惊魂</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>真相就在眼前。</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>大佛普拉斯</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>超能陆战队</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Balalala~~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>波西米亚狂想曲</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>被解救的姜戈</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>爆裂鼓手</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>阿凡达</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>绝对意义上的美轮美奂。</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>真爱至上</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>爱，是个动词。</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>战争之王</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>做一颗让别人需要你的棋子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>遗愿清单</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>用剩余不多的时间，去燃烧整个生命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>新龙门客栈</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>嬉笑怒骂，调风动月。</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>无耻混蛋</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>网络谜踪</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>唐伯虎点秋香</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华太师是黄霑，吴镇宇四大才子之一。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>神偷奶爸</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Mr. I Don't Care其实也有Care的时候。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>对爱的执着，可以超越一切。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>奇迹男孩</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>世界不完美，爱会有奇迹。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>贫民窟的百万富翁</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>魔女宅急便</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>朗读者</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>记忆碎片</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>一个针管引发的血案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>花样年华</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>偷情本没有这样美。</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>黑天鹅</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>黑暗之美。</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>海边的曼彻斯特</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>我们都有权利不与自己的过去和解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>哈利·波特与密室</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>魔法的密室之门已打开...</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>警恶惩奸，维护世界和平这个任务就交给你了，好吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>疯狂的麦克斯4：狂暴之路</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>东邪西毒</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>电影诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>谍影重重</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>穿越时空的少女</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>爱上未来的你。</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>冰川时代</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>松鼠才是角儿。</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>傲慢与偏见</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>爱是摈弃傲慢与偏见之后的曙光。</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>E.T. 外星人</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>再次出发之纽约遇见你</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>爱我就给我看你的播放列表。</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>香水</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>一个单凭体香达到高潮的男人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>完美陌生人</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>来啊，互相伤害啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>色，戒</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>假戏真情，爱欲深海</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>青蛇</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>恋恋笔记本</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>爱情没有那么多借口，如果不能圆满，只能说明爱的不够。</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>恐怖游轮</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>不要企图在重复中寻找已经失去的爱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>九品芝麻官</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>只有有信仰的人才能说出事实真相。</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>彗星来的那一夜</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>小成本大魅力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>哈利·波特与火焰杯</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>一部能引人思考的科幻励志片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>釜山行</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>揭露人性的丧尸题材力作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>疯狂的石头</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>中国版《两杆大烟枪》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>发条橙</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>猜火车</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>不可猜的青春迷笛。</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>阿飞正传</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>王家卫是一种风格，张国荣是一个代表。</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>源代码</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>小萝莉的猴神大叔</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>宝莱坞的萝莉与大叔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>你的名字。</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>初恋这件小事</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>黑小鸭速效美白记。</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>驴得水</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>过去的如果就让它过去了，未来只会越来越糟！</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C251"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>电影名称</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>评分</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>评语</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>肖申克的救赎</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>希望让人自由。</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>控方证人</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>比利·怀德满分作品。</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>霸王别姬</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>风华绝代。</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>辛德勒的名单</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>拯救一个人，就是拯救整个世界。</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>人生果实</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>土壤没有落叶不会肥沃，没有了你就不算人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>美丽人生</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>最美的谎言。</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>阿甘正传</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>一部美国近现代史。</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>忠犬八公的故事</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>永远都不能忘记你所爱的人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>这个杀手不太冷</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>怪蜀黍和小萝莉不得不说的故事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>泰坦尼克号</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>失去的才是永恒的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>十二怒汉</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>1957年的理想主义。</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>千与千寻</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>最好的宫崎骏，最好的久石让。</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>星际穿越</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>爱是一种力量，让我们超越时空感知它的存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>熔炉</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>我们一路奋战不是为了改变世界，而是为了不让世界改变我们。</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>摩登时代</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大时代中的人生，小人物的悲喜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>乱世佳人</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Tomorrow is another day.</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>教父</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>千万不要记恨你的对手，这样会让你失去理智。</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>机器人总动员</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>小瓦力，大人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>海豚湾</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海豚的微笑，是世界上最高明的伪装。</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>海上钢琴师</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>每个人都要走一条自己坚定了的路，就算是粉身碎骨。</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>放牛班的春天</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>天籁一般的童声，是最接近上帝的存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>盗梦空间</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>诺兰给了我们一场无法盗取的梦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>大闹天宫</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>经典之作，历久弥新。</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>楚门的世界</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>如果再也不能见到你，祝你早安，午安，晚安。</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>城市之光</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>永远的小人物，伟大的卓别林。</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>忠犬八公物语</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>养狗三日，便会对你终其一生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>指环王3：王者无敌</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>史诗的终章。</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>小鞋子</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>奔跑的孩子是天使。</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>无间道</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>香港电影史上永不过时的杰作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>天堂电影院</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>那些吻戏，那些青春，都在影院的黑暗里被泪水冲刷得无比清晰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>天书奇谭</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>传奇的年代，醉人的童话。</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>素媛</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>受过伤害的人总是笑得最开心，因为他们不愿意让身边的人承受一样的痛苦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>三傻大闹宝莱坞</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>英俊版憨豆，高情商版谢耳朵。</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>七武士</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>时代悲歌。</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>末代皇帝</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>“不要跟我比惨，我比你更惨”再适合这部电影不过了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>美国往事</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>往事如烟，无处祭奠。</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>龙猫</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>人人心中都有个龙猫，童年就永远不会消失。</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>教父2</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>优雅的孤独。</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>活着</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>张艺谋最好的电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>海蒂和爷爷</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>如果生活中有什么使你感到快乐，那就去做吧！不要管别人说什么。</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>鬼子来了</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>对敌人的仁慈，就是对自己残忍。</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>钢琴家</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>音乐能化解仇恨。</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>疯狂动物城</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>迪士尼给我们营造的乌托邦就是这样，永远善良勇敢，永远出乎意料。</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>东京物语</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>东京那么大，如果有一天走失了，恐怕一辈子不能再相见。</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>大话西游之大圣娶亲</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>一生所爱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>触不可及</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>满满温情的高雅喜剧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>辩护人</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>电影的现实意义大过电影本身。</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>无尽的黑暗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>指环王2：双塔奇兵</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>承前启后的史诗篇章。</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>饮食男女</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>人生不能像做菜，把所有的料都准备好了才下锅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>寻梦环游记</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>死亡不是真的逝去，遗忘才是永恒的消亡。</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>无人知晓</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>我的平常生活就是他人的幸福。</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>闻香识女人</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>史上最美的探戈。</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>完美的世界</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>坏人的好总是比好人的好来得更感人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>天空之城</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>对天空的追逐，永不停止。</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>死亡诗社</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>当一个死水般的体制内出现一个活跃的变数时，所有的腐臭都站在了光明的对面。</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>狩猎</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>人言可畏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>少年派的奇幻漂流</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>瑰丽壮观、无人能及的冒险之旅。</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>窃听风暴</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>别样人生。</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>怦然心动</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>真正的幸福是来自内心深处。</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>哪吒闹海</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>想你时你在闹海。</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>两杆大烟枪</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>4个臭皮匠顶个诸葛亮，盖·里奇果然不是盖的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>何以为家</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>凝视卑弱生命，用电影改变命运。</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>海洋</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>大海啊，不全是水。</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>哈尔的移动城堡</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>带着心爱的人在天空飞翔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>飞越疯人院</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>自由万岁。</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>当幸福来敲门</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>平民励志片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>穿条纹睡衣的男孩</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>尽管有些不切实际的幻想，这部电影依旧是一部感人肺腑的佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>指环王1：魔戒再现</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>9</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>传说的开始。</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>拯救大兵瑞恩</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>9</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>美利坚精神输出大片No1.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>雨中曲</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>9</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>骨灰级歌舞片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>音乐之声</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>9</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>用音乐化解仇恨，让歌声串起美好。</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>一一</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>9</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>我们都曾经是一一。</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>小森林 夏秋篇</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>9</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>那些静得只能听见呼吸的日子里，你明白孤独即生活。</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>小森林 冬春篇</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>9</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>尊敬他人，尊敬你生活的这片土地，明白孤独是人生的常态。</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>我不是药神</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>9</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>对我们国家而言，这样的电影多一部是一部。</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>我爱你</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>9</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>来也匆匆去也匆匆，就这样风雨兼程。</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>摔跤吧！爸爸</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>9</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>你不是在为你一个人战斗，你要让千千万万的女性看到女生并不是只能相夫教子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>狮子王</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>9</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>动物版《哈姆雷特》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>美丽心灵</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>9</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>爱是一切逻辑和原由。</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>猫鼠游戏</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>9</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>骗子大师和执著警探的你追我跑故事。</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>罗马假日</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>9</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>爱情哪怕只有一天。</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>惊魂记</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>9</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>故事的反转与反转，分裂电影的始祖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>红辣椒</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>9</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>梦的勾结。</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>黑客帝国</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>9</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>视觉革命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>哈利·波特与魔法石</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>9</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>童话世界的开端。</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>飞屋环游记</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>9</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>最后那些最无聊的事情，才是最值得怀念的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>大话西游之月光宝盒</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>9</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>旷古烁今。</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>搏击俱乐部</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>9</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>邪恶与平庸蛰伏于同一个母体，在特定的时间互相对峙。</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>追随</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>诺兰的牛逼来源于内心散发出的恐惧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>致命魔术</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>孪生蝙蝠侠大战克隆金刚狼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>幽灵公主</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>人与自然的战争史诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>勇敢的心</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>史诗大片的典范。</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>萤火之森</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>触不到的恋人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>心灵捕手</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>人生中应该拥有这样的一段豁然开朗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>喜宴</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中国家庭的喜怒哀乐忍。</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>西西里的美丽传说</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>美丽无罪。</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>我是山姆</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>爱并不需要智商 。</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>未麻的部屋</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>好的剧本是，就算你猜到了结局也猜不到全部。</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>四个春天</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>生病的E.T.皮肤的颜色就像柿子饼。</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>上帝之城</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>被上帝抛弃了的上帝之城。</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>请以你的名字呼唤我</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>沉醉在电影的情感和视听氛围中无法自拔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>情书</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>暗恋的极致。</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>你看起来好像很好吃</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>感情不分食草或者食肉。</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>玛丽和马克思</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>你是我最好的朋友，你是我唯一的朋友 。</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>绿皮书</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>去除成见，需要勇气。</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>卢旺达饭店</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>当这个世界闭上双眼，他却敞开了怀抱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>教父3</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>任何信念的力量，都无法改变命运。</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>虎口脱险</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>永远看不腻的喜剧。</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>风之谷</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>动画片的圣经。</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>第六感</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>深入内心的恐怖，出人意料的结局。</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>地球上的星星</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>天使保护事件始末。</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>春光乍泄</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>爱情纠缠，男女一致。</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>超脱</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>穷尽一生，我们要学会的，不过是彼此拥抱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>侧耳倾听</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>少女情怀总是诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>本杰明·巴顿奇事</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>在时间之河里感受溺水之苦。</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>被嫌弃的松子的一生</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>以戏谑来戏谑戏谑。</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>V字仇杀队</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>一张面具背后的理想与革命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7号房的礼物</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>《我是山姆》的《美丽人生》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>纵横四海</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>香港浪漫主义警匪动作片的巅峰之作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>致命ID</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>最不可能的那个人永远是最可能的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>一个叫欧维的男人决定去死</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>惠及一生的美丽。</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>阳光姐妹淘</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>再多各自牛逼的时光，也比不上一起傻逼的岁月。</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>阳光灿烂的日子</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>一场华丽的意淫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>幸福终点站</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>有时候幸福需要等一等。</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>新世界</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>要做就做得狠一点，这样才能活下去。</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>玩具总动员3</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>跨度十五年的欢乐与泪水。</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>甜蜜蜜</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>相逢只要一瞬间，等待却像是一辈子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>杀人回忆</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>关于连环杀人悬案的集体回忆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>入殓师</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>死可能是一道门，逝去并不是终结，而是超越，走向下一程。</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>让子弹飞</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>你给我翻译翻译，神马叫做TMD的惊喜。</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>燃情岁月</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>传奇，不是每个人都可以拥有。</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>千钧一发</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>还原真实而残酷的战争。</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>七宗罪</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>警察抓小偷，老鼠玩死猫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>绿里奇迹</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>天使暂时离开。</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>罗生门</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>人生的N种可能性。</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>恐怖直播</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>恐怖分子的“秋菊打官司”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>可可西里</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>坚硬的信仰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>看不见的客人</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>你以为你以为的就是你以为的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>聚焦</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>新闻人的理性求真。</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>菊次郎的夏天</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>从没见过那么流氓的温柔，从没见过那么温柔的流氓。</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>禁闭岛</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>昔日翩翩少年，今日大腹便便。</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>借东西的小人阿莉埃蒂</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>曾经的那段美好会沉淀为一辈子的记忆。</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>魂断蓝桥</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>中国式内在的美国电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>荒蛮故事</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>始于荒诞，止于更荒诞。</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>蝴蝶效应</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>人的命运被自己瞬间的抉择改变。</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>海街日记</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>是枝裕和的家庭习作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>哈利·波特与死亡圣器(下)</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>10年的完美句点。</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>牯岭街少年杀人事件</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>弱者送给弱者的一刀。</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>房间</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>被偷走的岁月，被伤害的生命，被禁锢的灵魂，终将被希望和善意救赎。</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>断背山</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>每个人心中都有一座断背山。</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>谍影重重3</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>像吃了苏打饼一样干脆的电影。</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>低俗小说</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>故事的高级讲法。</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>大鱼</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>抱着梦想而活着的人是幸福的，怀抱梦想而死去的人是不朽的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>达拉斯买家俱乐部</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Jared Leto的腿比女人还美！</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>沉默的羔羊</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>安东尼·霍普金斯的顶级表演。</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>步履不停</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>日本的家庭电影已经是世界巅峰了，步履不停是巅峰中的佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>布达佩斯大饭店</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>小清新的故事里注入了大历史的情怀。</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>蝙蝠侠：黑暗骑士崛起</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>诺兰就是保证。</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>爱在午夜降临前</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>所谓爱情，就是话唠一路，都不会心生腻烦，彼此嫌弃。</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>爱在日落黄昏时</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>九年后的重逢是世俗和责任的交叠，没了悸动和青涩，沧桑而温暖。</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>爱在黎明破晓前</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>缘分是个连绵词，最美不过一瞬。</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>2001太空漫游</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>现代科幻电影的开山之作，最伟大导演的最伟大影片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>重庆森林</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>寂寞没有期限。</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>终结者2：审判日</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>少见的超越首部的续集，动作片中的经典。</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>雨人</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>生活在自己的世界里，也可以让周围的人显得可笑和渺小。</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>萤火虫之墓</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>幸福是生生不息，却难以触及的远。</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>英雄本色</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>英雄泪短，兄弟情长。</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>一次别离</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>你要相信，这世上真的有爱存在，不管在什么年纪</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>驯龙高手</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>和谐的生活离不开摸头与被摸头。</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>血钻</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>每个美丽事物背后都是滴血的现实。</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>血战钢锯岭</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>优秀的战争片不会美化战场，不会粉饰死亡，不会矮化敌人，不会无视常识，最重要的，不会宣扬战争。</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>心迷宫</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>荒诞讽刺，千奇百巧，抽丝剥茧，百转千回。</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>小偷家族</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>我们组成了家。</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>消失的爱人</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>年度最佳date movie。</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>喜剧之王</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>我是一个演员。</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>无敌破坏王</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>迪士尼和皮克斯拿错剧本的产物。</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>头脑特工队</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>愿我们都不用长大，每一座城堡都能永远存在。</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>头号玩家</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>写给影迷，动漫迷和游戏迷的一封情书。</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>天使爱美丽</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>法式小清新。</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>岁月神偷</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>岁月流逝，来日可追。</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>时空恋旅人</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>把每天当作最后一天般珍惜度过，积极拥抱生活，就是幸福。</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>射雕英雄传之东成西就</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>百看不厌。</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>三块广告牌</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>怼天怼地，你走后，她与世界为敌。</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>倩女幽魂</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>两张绝世的脸。</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>模仿游戏</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>他给机器起名“克里斯托弗”，因为这是他初恋的名字。</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>浪潮</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>世界离独裁只有五天。</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>剪刀手爱德华</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>浪漫忧郁的成人童话。</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>加勒比海盗</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>约翰尼·德普的独角戏。</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>黑鹰坠落</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>我完全康复了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>黑客帝国3：矩阵革命</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>不得不说，《黑客帝国》系列是商业片与科幻、哲学完美结合的典范。</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>哈利·波特与阿兹卡班的囚徒</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>不一样的导演，不一样的哈利·波特。</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>怪兽电力公司</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>不要给它起名字，起了名字就有感情了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>告白</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>没有一人完全善，也没有一人完全恶。</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>疯狂原始人</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>老少皆宜，这就是好莱坞动画的魅力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>二十二</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>有一些东西不应该被遗忘。</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>谍影重重2</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>谁说王家卫镜头很晃？</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>电锯惊魂</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>真相就在眼前。</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>大佛普拉斯</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>人们可以登上月球，却永远无法探索人们内心的宇宙。</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>超能陆战队</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Balalala~~~</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>波西米亚狂想曲</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>被解救的姜戈</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>热血沸腾，那个低俗、性感的无耻混蛋又来了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>爆裂鼓手</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>这个世界从不善待努力的人，努力了也不一定会成功，但是知道自己在努力，就是活下去的动力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>阿凡达</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>绝对意义上的美轮美奂。</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>真爱至上</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>爱，是个动词。</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>战争之王</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>做一颗让别人需要你的棋子。</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>遗愿清单</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>用剩余不多的时间，去燃烧整个生命。</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>新龙门客栈</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>嬉笑怒骂，调风动月。</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>无耻混蛋</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>昆汀同学越来越变态了，比北野武还杜琪峰。</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>网络谜踪</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>唐伯虎点秋香</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>华太师是黄霑，吴镇宇四大才子之一。</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>神偷奶爸</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Mr. I Don't Care其实也有Care的时候。</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>人工智能</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>对爱的执着，可以超越一切。</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>奇迹男孩</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>世界不完美，爱会有奇迹。</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>贫民窟的百万富翁</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>上帝之城+猜火车+阿甘正传+开心辞典=山寨富翁</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>魔女宅急便</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>宫崎骏的电影总让人感觉世界是美好的，阳光明媚的。</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>朗读者</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>当爱情跨越年龄的界限，它似乎能变得更久远一点，成为一种责任，一种水到渠成的相濡以沫。</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>记忆碎片</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>一个针管引发的血案。</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>花样年华</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>偷情本没有这样美。</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>黑天鹅</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>黑暗之美。</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>海边的曼彻斯特</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>我们都有权利不与自己的过去和解。</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>哈利·波特与密室</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>魔法的密室之门已打开...</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>功夫</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>警恶惩奸，维护世界和平这个任务就交给你了，好吗？</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>疯狂的麦克斯4：狂暴之路</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>“多么美好的一天！”轰轰轰砰咚，啪哒哒哒轰隆隆，磅~</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>东邪西毒</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>电影诗。</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>谍影重重</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>哗啦啦啦啦，天在下雨，哗啦啦啦啦，云在哭泣……找自己。</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>穿越时空的少女</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>爱上未来的你。</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>冰川时代</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>松鼠才是角儿。</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>傲慢与偏见</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>爱是摈弃傲慢与偏见之后的曙光。</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>E.T. 外星人</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>再次出发之纽约遇见你</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>爱我就给我看你的播放列表。</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>香水</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>一个单凭体香达到高潮的男人。</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>完美陌生人</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>来啊，互相伤害啊！</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>色，戒</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>假戏真情，爱欲深海</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>青蛇</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>人生如此，浮生如斯。谁人言，花彼岸，此生情长意短。谁都是不懂爱的罢了。</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>恋恋笔记本</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>爱情没有那么多借口，如果不能圆满，只能说明爱的不够。</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>恐怖游轮</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>不要企图在重复中寻找已经失去的爱。</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>九品芝麻官</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>只有有信仰的人才能说出事实真相。</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>彗星来的那一夜</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>小成本大魅力。</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>哈利·波特与火焰杯</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>一部能引人思考的科幻励志片。</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>釜山行</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>揭露人性的丧尸题材力作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>疯狂的石头</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>中国版《两杆大烟枪》。</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>发条橙</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>猜火车</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>不可猜的青春迷笛。</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>阿飞正传</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>王家卫是一种风格，张国荣是一个代表。</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>源代码</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>邓肯·琼斯继《月球》之后再度奉献出一部精彩绝伦的科幻佳作。</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>小萝莉的猴神大叔</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>宝莱坞的萝莉与大叔。</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>你的名字。</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>穿越错位的时空，仰望陨落的星辰，你没留下你的名字，我却无法忘记那句“我爱你”。</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>初恋这件小事</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>黑小鸭速效美白记。</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>驴得水</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>过去的如果就让它过去了，未来只会越来越糟！</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>